--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44367845-CBB8-4B17-8A5F-FF0EA73CB025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E85362-B039-454F-AFEA-F6A3581362DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,10 +154,10 @@
     <t>Configuration Saved success message should be displayed</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
     <t>Not proper</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
